--- a/1-Data/Nutrients/DissolvedNP.xlsx
+++ b/1-Data/Nutrients/DissolvedNP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cd2dd71d79f43c4e/Documents/GitHub/Winter-Grab-Thesis-project/1-Data/Nutrients/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{E8A950EC-87BD-4D65-831E-CE16142CB825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3AD597CB-FEB2-430A-BC7B-51E01BC91541}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="8_{E8A950EC-87BD-4D65-831E-CE16142CB825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{396B2C64-2228-4754-B9D5-D5B4D5FB7886}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{93BF3AB4-077C-4571-AB5D-918126F9F9F3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{93BF3AB4-077C-4571-AB5D-918126F9F9F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,26 +34,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="67">
-  <si>
-    <t>GB 32</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="58">
   <si>
     <t>Rae-Ann Eifert</t>
   </si>
   <si>
-    <t>LSC-MB</t>
-  </si>
-  <si>
     <t>McKay</t>
   </si>
   <si>
-    <t>LM_Racine</t>
-  </si>
-  <si>
-    <t>Keeweenaw Bay Baraga</t>
-  </si>
-  <si>
     <t>Vick-Majors</t>
   </si>
   <si>
@@ -66,18 +54,9 @@
     <t>Uzarski</t>
   </si>
   <si>
-    <t>NW pier</t>
-  </si>
-  <si>
-    <t>Queen's Ontario</t>
-  </si>
-  <si>
     <t>Boegman</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>Coleman</t>
   </si>
   <si>
@@ -87,39 +66,15 @@
     <t>Warren Currie</t>
   </si>
   <si>
-    <t>Burlington-Pier</t>
-  </si>
-  <si>
-    <t>South Bass Island</t>
-  </si>
-  <si>
     <t>Chaffin</t>
   </si>
   <si>
-    <t>Bay of Quintel</t>
-  </si>
-  <si>
     <t>Xenopoulos</t>
   </si>
   <si>
-    <t>GB1</t>
-  </si>
-  <si>
-    <t>LSC</t>
-  </si>
-  <si>
     <t>Wagner</t>
   </si>
   <si>
-    <t>KW</t>
-  </si>
-  <si>
-    <t>BQI</t>
-  </si>
-  <si>
-    <t>St Martin Bay</t>
-  </si>
-  <si>
     <t>Doubek</t>
   </si>
   <si>
@@ -138,78 +93,18 @@
     <t>Racine</t>
   </si>
   <si>
-    <t>Sutton's Bay</t>
-  </si>
-  <si>
-    <t>Whitefish Bay</t>
-  </si>
-  <si>
-    <t>KB</t>
-  </si>
-  <si>
     <t>Queen's</t>
   </si>
   <si>
-    <t>St Clair SI</t>
-  </si>
-  <si>
-    <t>St Clair S2</t>
-  </si>
-  <si>
-    <t>St Clair S1</t>
-  </si>
-  <si>
-    <t>St Martin's Bay</t>
-  </si>
-  <si>
-    <t>CCIW- Hamilton</t>
-  </si>
-  <si>
-    <t>Bur Pier</t>
-  </si>
-  <si>
-    <t>BQ1</t>
-  </si>
-  <si>
     <t>Put-In-Bay</t>
   </si>
   <si>
-    <t>Michigan</t>
-  </si>
-  <si>
-    <t>St Clair</t>
-  </si>
-  <si>
-    <t>Superior</t>
-  </si>
-  <si>
-    <t>Ontario</t>
-  </si>
-  <si>
-    <t>Erie</t>
-  </si>
-  <si>
-    <t>Huron</t>
-  </si>
-  <si>
-    <t>Site</t>
-  </si>
-  <si>
     <t>PI</t>
   </si>
   <si>
     <t>Lake</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Latitude</t>
-  </si>
-  <si>
-    <t>Longitude</t>
-  </si>
-  <si>
     <t>SRP.ug.L</t>
   </si>
   <si>
@@ -219,15 +114,6 @@
     <t>Nox.N.ug.L</t>
   </si>
   <si>
-    <t>Erie Graeber Aug</t>
-  </si>
-  <si>
-    <t>EC 962</t>
-  </si>
-  <si>
-    <t>St. Martins Bay</t>
-  </si>
-  <si>
     <t>DIN.ug.L</t>
   </si>
   <si>
@@ -235,6 +121,93 @@
   </si>
   <si>
     <t>Zastepa</t>
+  </si>
+  <si>
+    <t>St_Martins_Bay</t>
+  </si>
+  <si>
+    <t>Bay_of_Quinte</t>
+  </si>
+  <si>
+    <t>Georgian_Bay</t>
+  </si>
+  <si>
+    <t>Keweenaw_Waterway</t>
+  </si>
+  <si>
+    <t>SCS1</t>
+  </si>
+  <si>
+    <t>B-Pier</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>LSC_MB</t>
+  </si>
+  <si>
+    <t>1629_Suttons_Bay</t>
+  </si>
+  <si>
+    <t>NW_Pier</t>
+  </si>
+  <si>
+    <t>Keweenaw_Bay_Baraga</t>
+  </si>
+  <si>
+    <t>GB_32</t>
+  </si>
+  <si>
+    <t>SCS2</t>
+  </si>
+  <si>
+    <t>Whitefish_Bay</t>
+  </si>
+  <si>
+    <t>EC962</t>
+  </si>
+  <si>
+    <t>Graeber</t>
+  </si>
+  <si>
+    <t>Lake Huron</t>
+  </si>
+  <si>
+    <t>Lake Erie</t>
+  </si>
+  <si>
+    <t>Lake Superior</t>
+  </si>
+  <si>
+    <t>Lake Ontario</t>
+  </si>
+  <si>
+    <t>Lake St Clair</t>
+  </si>
+  <si>
+    <t>Lake Michigan</t>
+  </si>
+  <si>
+    <t>Station</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Season</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>Summer</t>
   </si>
 </sst>
 </file>
@@ -286,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -326,6 +299,12 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -341,6 +320,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -642,544 +625,543 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6351749-7BD0-4E80-90FC-4E8E9E32E966}">
   <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="3"/>
-    <col min="4" max="4" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" style="11" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="8"/>
-    <col min="11" max="11" width="9.140625" style="14"/>
-    <col min="14" max="14" width="20.5703125" customWidth="1"/>
-    <col min="15" max="15" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="3"/>
+    <col min="4" max="4" width="10.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" style="6" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" style="8"/>
+    <col min="11" max="11" width="9.109375" style="14"/>
+    <col min="14" max="14" width="20.5546875" customWidth="1"/>
+    <col min="15" max="15" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="G1" s="10" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2">
         <v>45342</v>
       </c>
-      <c r="E2" s="1">
-        <v>46.014110000000002</v>
-      </c>
-      <c r="F2" s="1">
-        <v>-84.690619999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E2" s="16">
+        <v>2024</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2">
         <v>45342</v>
       </c>
-      <c r="E3" s="1">
-        <v>41.515250000000002</v>
-      </c>
-      <c r="F3" s="1">
-        <v>-81.721530000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E3" s="16">
+        <v>2024</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2">
         <v>45342</v>
       </c>
-      <c r="E4" s="1">
-        <v>46.670009999999998</v>
-      </c>
-      <c r="F4" s="1">
-        <v>-90.884294999999995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E4" s="16">
+        <v>2024</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="2">
         <v>45343</v>
       </c>
-      <c r="E5" s="1">
-        <v>44.14273</v>
-      </c>
-      <c r="F5" s="1">
-        <v>-77.385729999999995</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E5" s="16">
+        <v>2024</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D6" s="2">
         <v>45344</v>
       </c>
-      <c r="E6" s="1">
-        <v>42.824939999999998</v>
-      </c>
-      <c r="F6" s="1">
-        <v>-79.567639999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E6" s="16">
+        <v>2024</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D7" s="2">
         <v>45344</v>
       </c>
-      <c r="E7" s="1">
-        <v>42.47513</v>
-      </c>
-      <c r="F7" s="1">
-        <v>-81.441479999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E7" s="16">
+        <v>2024</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D8" s="2">
         <v>45344</v>
       </c>
-      <c r="E8" s="1">
-        <v>44.751916000000001</v>
-      </c>
-      <c r="F8" s="1">
-        <v>-79.777751800000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E8" s="16">
+        <v>2024</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D9" s="2">
         <v>45345</v>
       </c>
-      <c r="E9" s="1">
-        <v>41.281170000000003</v>
-      </c>
-      <c r="F9" s="1">
-        <v>-81.670349999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E9" s="16">
+        <v>2024</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" s="2">
         <v>45345</v>
       </c>
-      <c r="E10" s="1">
-        <v>47.121000000000002</v>
-      </c>
-      <c r="F10" s="1">
-        <v>-88.545000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E10" s="16">
+        <v>2024</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D11" s="2">
         <v>45348</v>
       </c>
-      <c r="E11" s="1">
-        <v>42.472000000000001</v>
-      </c>
-      <c r="F11" s="1">
-        <v>-82.8767</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E11" s="16">
+        <v>2024</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" s="2">
         <v>45348</v>
       </c>
-      <c r="E12" s="1">
-        <v>43.297260000000001</v>
-      </c>
-      <c r="F12" s="1">
-        <v>-79.801839999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E12" s="16">
+        <v>2024</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" s="2">
         <v>45348</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E13" s="16">
+        <v>2024</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" s="2">
         <v>45349</v>
       </c>
-      <c r="E14" s="1">
-        <v>44.220610000000001</v>
-      </c>
-      <c r="F14" s="1">
-        <v>-76.501649999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E14" s="16">
+        <v>2024</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D15" s="2">
         <v>45349</v>
       </c>
-      <c r="E15" s="1">
-        <v>41.658349000000001</v>
-      </c>
-      <c r="F15" s="1">
-        <v>-82.826087000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E15" s="16">
+        <v>2024</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D16" s="2">
         <v>45349</v>
       </c>
-      <c r="E16" s="1">
-        <v>41.795189999999998</v>
-      </c>
-      <c r="F16" s="1">
-        <v>-87.576189999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E16" s="16">
+        <v>2024</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D17" s="2">
         <v>45349</v>
       </c>
-      <c r="E17" s="1">
-        <v>42.468910000000001</v>
-      </c>
-      <c r="F17" s="1">
-        <v>-82.41095</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E17" s="16">
+        <v>2024</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D18" s="2">
         <v>45350</v>
       </c>
-      <c r="E18" s="1">
-        <v>44.737580000000001</v>
-      </c>
-      <c r="F18" s="1">
-        <v>-87.777169999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>1629</v>
+      <c r="E18" s="16">
+        <v>2024</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D19" s="2">
         <v>45350</v>
       </c>
-      <c r="E19" s="1">
-        <v>44.974690000000002</v>
-      </c>
-      <c r="F19" s="1">
-        <v>-85.646770000000004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E19" s="16">
+        <v>2024</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D20" s="2">
         <v>45350</v>
       </c>
-      <c r="E20" s="1">
-        <v>44.765729999999998</v>
-      </c>
-      <c r="F20" s="1">
-        <v>-85.605779999999996</v>
+      <c r="E20" s="16">
+        <v>2024</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="M20" s="4"/>
     </row>
-    <row r="21" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D21" s="2">
         <v>45353</v>
       </c>
-      <c r="E21" s="1">
-        <v>46.776739999999997</v>
-      </c>
-      <c r="F21" s="1">
-        <v>-88.483090000000004</v>
+      <c r="E21" s="16">
+        <v>2024</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="M21" s="4"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>1629</v>
+    <row r="22" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D22" s="2">
         <v>45355</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>13</v>
+      <c r="E22" s="16">
+        <v>2024</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="M22" s="4"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D23" s="2">
         <v>45355</v>
       </c>
-      <c r="E23" s="1">
-        <v>44.766190000000002</v>
-      </c>
-      <c r="F23" s="1">
-        <v>-85.605760000000004</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E23" s="16">
+        <v>2024</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C24" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D24" s="2">
         <v>45364</v>
       </c>
-      <c r="E24" s="1">
-        <v>44.581519999999998</v>
-      </c>
-      <c r="F24" s="1">
-        <v>-87.979669999999999</v>
+      <c r="E24" s="16">
+        <v>2024</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="M24" s="4"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D25" s="2">
         <v>45426</v>
       </c>
-      <c r="E25" s="1">
-        <v>42.468879999999999</v>
-      </c>
-      <c r="F25" s="1">
-        <v>-82.410556</v>
+      <c r="E25" s="16">
+        <v>2024</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="G25" s="11">
         <v>2.2565</v>
@@ -1200,24 +1182,24 @@
       </c>
       <c r="M25" s="4"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D26" s="2">
         <v>45426</v>
       </c>
-      <c r="E26" s="1">
-        <v>46.664920000000002</v>
-      </c>
-      <c r="F26" s="1">
-        <v>-90.859920000000002</v>
+      <c r="E26" s="16">
+        <v>2024</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="G26" s="11">
         <v>0.83799999999999997</v>
@@ -1238,24 +1220,24 @@
       </c>
       <c r="M26" s="4"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D27" s="2">
         <v>45426</v>
       </c>
-      <c r="E27" s="1">
-        <v>42.737571000000003</v>
-      </c>
-      <c r="F27" s="1">
-        <v>-87.777174000000002</v>
+      <c r="E27" s="16">
+        <v>2024</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="G27" s="11">
         <v>0.55500000000000005</v>
@@ -1276,24 +1258,24 @@
       </c>
       <c r="M27" s="4"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D28" s="2">
         <v>45426</v>
       </c>
-      <c r="E28" s="1">
-        <v>42.471389000000002</v>
-      </c>
-      <c r="F28" s="1">
-        <v>-82.875829999999993</v>
+      <c r="E28" s="16">
+        <v>2024</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="G28" s="11">
         <v>1.3</v>
@@ -1314,24 +1296,24 @@
       </c>
       <c r="M28" s="4"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D29" s="2">
         <v>45426</v>
       </c>
-      <c r="E29" s="1">
-        <v>42.664721999999998</v>
-      </c>
-      <c r="F29" s="1">
-        <v>-82.755278000000004</v>
+      <c r="E29" s="16">
+        <v>2024</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="G29" s="11">
         <v>0.75600000000000001</v>
@@ -1352,24 +1334,24 @@
       </c>
       <c r="M29" s="4"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D30" s="2">
         <v>45426</v>
       </c>
-      <c r="E30" s="1">
-        <v>43.302370000000003</v>
-      </c>
-      <c r="F30" s="1">
-        <v>-79.791499999999999</v>
+      <c r="E30" s="16">
+        <v>2024</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="G30" s="12">
         <v>0.23</v>
@@ -1390,24 +1372,24 @@
       </c>
       <c r="M30" s="4"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D31" s="2">
         <v>45427</v>
       </c>
-      <c r="E31" s="1">
-        <v>44.220610000000001</v>
-      </c>
-      <c r="F31" s="1">
-        <v>-76.501649999999998</v>
+      <c r="E31" s="16">
+        <v>2024</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="G31" s="11">
         <v>0.9</v>
@@ -1428,24 +1410,24 @@
       </c>
       <c r="M31" s="4"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C32" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D32" s="2">
         <v>45427</v>
       </c>
-      <c r="E32" s="1">
-        <v>44.581330000000001</v>
-      </c>
-      <c r="F32" s="1">
-        <v>-87.979699999999994</v>
+      <c r="E32" s="16">
+        <v>2024</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="G32" s="11">
         <v>0.69699999999999995</v>
@@ -1466,24 +1448,24 @@
       </c>
       <c r="M32" s="4"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D33" s="2">
         <v>45427</v>
       </c>
-      <c r="E33" s="1">
-        <v>44.974690000000002</v>
-      </c>
-      <c r="F33" s="1">
-        <v>-85.646770000000004</v>
+      <c r="E33" s="16">
+        <v>2024</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="G33" s="11">
         <v>0.56000000000000005</v>
@@ -1504,24 +1486,24 @@
       </c>
       <c r="M33" s="4"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D34" s="2">
         <v>45427</v>
       </c>
-      <c r="E34" s="1">
-        <v>44.765729999999998</v>
-      </c>
-      <c r="F34" s="1">
-        <v>-85.605779999999996</v>
+      <c r="E34" s="16">
+        <v>2024</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="G34" s="11">
         <v>0.61099999999999999</v>
@@ -1542,24 +1524,24 @@
       </c>
       <c r="M34" s="4"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D35" s="2">
         <v>45427</v>
       </c>
-      <c r="E35" s="1">
-        <v>43.297170000000001</v>
-      </c>
-      <c r="F35" s="1">
-        <v>-79.801820000000006</v>
+      <c r="E35" s="16">
+        <v>2024</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="G35" s="11">
         <v>1.133</v>
@@ -1570,22 +1552,22 @@
       <c r="J35" s="6"/>
       <c r="M35" s="4"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D36" s="2"/>
-      <c r="E36" s="1">
-        <v>46.013069999999999</v>
-      </c>
-      <c r="F36" s="1">
-        <v>-84.830200000000005</v>
+      <c r="E36" s="16">
+        <v>2024</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="G36" s="11">
         <v>0.92600000000000005</v>
@@ -1606,24 +1588,24 @@
       </c>
       <c r="M36" s="4"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D37" s="2">
         <v>45428</v>
       </c>
-      <c r="E37" s="1">
-        <v>46.454450000000001</v>
-      </c>
-      <c r="F37" s="1">
-        <v>-84.830200000000005</v>
+      <c r="E37" s="16">
+        <v>2024</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="G37" s="12">
         <v>0.23</v>
@@ -1645,24 +1627,24 @@
       <c r="M37" s="4"/>
       <c r="P37" s="7"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D38" s="2">
         <v>45432</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>13</v>
+      <c r="E38" s="16">
+        <v>2024</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="G38" s="11">
         <v>1.258</v>
@@ -1683,24 +1665,24 @@
       </c>
       <c r="M38" s="4"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D39" s="2">
         <v>45432</v>
       </c>
-      <c r="E39" s="1">
-        <v>41.523017000000003</v>
-      </c>
-      <c r="F39" s="1">
-        <v>-81.719700000000003</v>
+      <c r="E39" s="16">
+        <v>2024</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="G39" s="11">
         <v>1.0649999999999999</v>
@@ -1721,24 +1703,24 @@
       </c>
       <c r="M39" s="4"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D40" s="2">
         <v>45433</v>
       </c>
-      <c r="E40" s="1">
-        <v>44.142710000000001</v>
-      </c>
-      <c r="F40" s="1">
-        <v>-77.386049999999997</v>
+      <c r="E40" s="16">
+        <v>2024</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="G40" s="12">
         <v>0.23</v>
@@ -1759,24 +1741,24 @@
       </c>
       <c r="M40" s="4"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D41" s="2">
         <v>45434</v>
       </c>
-      <c r="E41" s="1">
-        <v>44.751869999999997</v>
-      </c>
-      <c r="F41" s="1">
-        <v>-79.777770000000004</v>
+      <c r="E41" s="16">
+        <v>2024</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="G41" s="11">
         <v>1.5205</v>
@@ -1797,24 +1779,24 @@
       </c>
       <c r="M41" s="4"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D42" s="2">
         <v>45441</v>
       </c>
-      <c r="E42" s="1">
-        <v>47.121549999999999</v>
-      </c>
-      <c r="F42" s="1">
-        <v>-88.545580000000001</v>
+      <c r="E42" s="16">
+        <v>2024</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="G42" s="11">
         <v>0.77700000000000002</v>
@@ -1835,24 +1817,24 @@
       </c>
       <c r="M42" s="4"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D43" s="2">
         <v>45441</v>
       </c>
-      <c r="E43" s="1">
-        <v>46.786990000000003</v>
-      </c>
-      <c r="F43" s="1">
-        <v>-88.460599999999999</v>
+      <c r="E43" s="16">
+        <v>2024</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="G43" s="11">
         <v>0.58299999999999996</v>
@@ -1873,24 +1855,24 @@
       </c>
       <c r="M43" s="4"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D44" s="2">
         <v>45496</v>
       </c>
-      <c r="E44" s="1">
-        <v>44.97475</v>
-      </c>
-      <c r="F44" s="1">
-        <v>-85.646320000000003</v>
+      <c r="E44" s="16">
+        <v>2024</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="G44" s="12">
         <v>0.23</v>
@@ -1911,24 +1893,24 @@
       </c>
       <c r="M44" s="4"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D45" s="2">
         <v>45496</v>
       </c>
-      <c r="E45" s="1">
-        <v>44.766190000000002</v>
-      </c>
-      <c r="F45" s="1">
-        <v>-85.605760000000004</v>
+      <c r="E45" s="16">
+        <v>2024</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="G45" s="12">
         <v>0.23</v>
@@ -1949,24 +1931,24 @@
       </c>
       <c r="M45" s="4"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D46" s="2">
         <v>45509</v>
       </c>
-      <c r="E46" s="1">
-        <v>42.471944399999998</v>
-      </c>
-      <c r="F46" s="1">
-        <v>-82.875</v>
+      <c r="E46" s="16">
+        <v>2024</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="G46" s="11">
         <v>0.67500000000000004</v>
@@ -1987,24 +1969,24 @@
       </c>
       <c r="M46" s="4"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D47" s="2">
         <v>45509</v>
       </c>
-      <c r="E47" s="1">
-        <v>46.664230000000003</v>
-      </c>
-      <c r="F47" s="1">
-        <v>-82.754599999999996</v>
+      <c r="E47" s="16">
+        <v>2024</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="G47" s="11">
         <v>0.49299999999999999</v>
@@ -2025,24 +2007,24 @@
       </c>
       <c r="M47" s="4"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D48" s="2">
         <v>45510</v>
       </c>
-      <c r="E48" s="1">
-        <v>46.662599999999998</v>
-      </c>
-      <c r="F48" s="1">
-        <v>-90.874488099999994</v>
+      <c r="E48" s="16">
+        <v>2024</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="G48" s="12">
         <v>0.23</v>
@@ -2063,24 +2045,24 @@
       </c>
       <c r="M48" s="4"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D49" s="2">
         <v>45511</v>
       </c>
-      <c r="E49" s="1">
-        <v>42.737571000000003</v>
-      </c>
-      <c r="F49" s="1">
-        <v>-87.777174000000002</v>
+      <c r="E49" s="16">
+        <v>2024</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="G49" s="11">
         <v>0.84899999999999998</v>
@@ -2101,24 +2083,24 @@
       </c>
       <c r="M49" s="4"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C50" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D50" s="2">
         <v>45511</v>
       </c>
-      <c r="E50" s="1">
-        <v>44.581330000000001</v>
-      </c>
-      <c r="F50" s="1">
-        <v>-87.979699999999994</v>
+      <c r="E50" s="16">
+        <v>2024</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="G50" s="11">
         <v>0.63200000000000001</v>
@@ -2139,24 +2121,24 @@
       </c>
       <c r="M50" s="4"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D51" s="2">
         <v>45511</v>
       </c>
-      <c r="E51" s="1">
-        <v>47.121189999999999</v>
-      </c>
-      <c r="F51" s="1">
-        <v>-88.545079999999999</v>
+      <c r="E51" s="16">
+        <v>2024</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="G51" s="11">
         <v>0.78100000000000003</v>
@@ -2177,24 +2159,24 @@
       </c>
       <c r="M51" s="4"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D52" s="2">
         <v>45511</v>
       </c>
-      <c r="E52" s="1">
-        <v>46.78716</v>
-      </c>
-      <c r="F52" s="1">
-        <v>-88.460800000000006</v>
+      <c r="E52" s="16">
+        <v>2024</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="G52" s="11">
         <v>0.64</v>
@@ -2215,24 +2197,24 @@
       </c>
       <c r="M52" s="4"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D53" s="2">
         <v>45512</v>
       </c>
-      <c r="E53" s="1">
-        <v>44.142699999999998</v>
-      </c>
-      <c r="F53" s="1">
-        <v>-77.385999999999996</v>
+      <c r="E53" s="16">
+        <v>2024</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="G53" s="11">
         <v>0.69299999999999995</v>
@@ -2253,24 +2235,24 @@
       </c>
       <c r="M53" s="4"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D54" s="2">
         <v>45516</v>
       </c>
-      <c r="E54" s="1">
-        <v>41.659100000000002</v>
-      </c>
-      <c r="F54" s="1">
-        <v>-82.822649999999996</v>
+      <c r="E54" s="16">
+        <v>2024</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="G54" s="11">
         <v>2.4510000000000001</v>
@@ -2291,24 +2273,24 @@
       </c>
       <c r="M54" s="4"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D55" s="2">
         <v>45516</v>
       </c>
-      <c r="E55" s="1">
-        <v>44.751869999999997</v>
-      </c>
-      <c r="F55" s="1">
-        <v>-79.778199999999998</v>
+      <c r="E55" s="16">
+        <v>2024</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="G55" s="11">
         <v>1.246</v>
@@ -2329,24 +2311,24 @@
       </c>
       <c r="M55" s="4"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D56" s="2">
         <v>45517</v>
       </c>
-      <c r="E56" s="1">
-        <v>46.454450000000001</v>
-      </c>
-      <c r="F56" s="1">
-        <v>-84.830200000000005</v>
+      <c r="E56" s="16">
+        <v>2024</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="G56" s="11">
         <v>0.82</v>
@@ -2367,24 +2349,24 @@
       </c>
       <c r="M56" s="4"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D57" s="2">
         <v>45517</v>
       </c>
-      <c r="E57" s="1">
-        <v>46.013069999999999</v>
-      </c>
-      <c r="F57" s="1">
-        <v>-84.830200000000005</v>
+      <c r="E57" s="16">
+        <v>2024</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="G57" s="12">
         <v>0.23</v>
@@ -2405,24 +2387,24 @@
       </c>
       <c r="M57" s="4"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D58" s="2">
         <v>45517</v>
       </c>
-      <c r="E58" s="1">
-        <v>43.298250000000003</v>
-      </c>
-      <c r="F58" s="1">
-        <v>-79.803083000000001</v>
+      <c r="E58" s="16">
+        <v>2024</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="G58" s="12">
         <v>0.23</v>
@@ -2443,24 +2425,24 @@
       </c>
       <c r="M58" s="4"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D59" s="2">
         <v>45517</v>
       </c>
-      <c r="E59" s="1">
-        <v>43.259900000000002</v>
-      </c>
-      <c r="F59" s="1">
-        <v>-79.749750000000006</v>
+      <c r="E59" s="16">
+        <v>2024</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="G59" s="11">
         <v>1.85</v>
@@ -2481,15 +2463,24 @@
       </c>
       <c r="M59" s="4"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
+      </c>
+      <c r="D60" s="15">
+        <v>45893</v>
+      </c>
+      <c r="E60" s="16">
+        <v>2024</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>57</v>
       </c>
       <c r="G60" s="11">
         <v>0.6845</v>
@@ -2510,7 +2501,7 @@
       </c>
       <c r="M60" s="4"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="M61" s="4"/>
     </row>
   </sheetData>

--- a/1-Data/Nutrients/DissolvedNP.xlsx
+++ b/1-Data/Nutrients/DissolvedNP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cd2dd71d79f43c4e/Documents/GitHub/Winter-Grab-Thesis-project/1-Data/Nutrients/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="8_{E8A950EC-87BD-4D65-831E-CE16142CB825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{396B2C64-2228-4754-B9D5-D5B4D5FB7886}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="8_{E8A950EC-87BD-4D65-831E-CE16142CB825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9884606F-151F-4D81-A830-952972132B4A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{93BF3AB4-077C-4571-AB5D-918126F9F9F3}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{93BF3AB4-077C-4571-AB5D-918126F9F9F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -259,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -302,9 +302,6 @@
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -320,10 +317,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -625,27 +618,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6351749-7BD0-4E80-90FC-4E8E9E32E966}">
   <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="3"/>
-    <col min="4" max="4" width="10.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.88671875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" style="6" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" style="6" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" style="8"/>
-    <col min="11" max="11" width="9.109375" style="14"/>
-    <col min="14" max="14" width="20.5546875" customWidth="1"/>
-    <col min="15" max="15" width="17.5546875" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="3"/>
+    <col min="4" max="4" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="8"/>
+    <col min="11" max="11" width="9.140625" style="14"/>
+    <col min="14" max="14" width="20.5703125" customWidth="1"/>
+    <col min="15" max="15" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>51</v>
       </c>
@@ -680,7 +673,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -693,14 +686,14 @@
       <c r="D2" s="2">
         <v>45342</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="1">
         <v>2024</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -713,14 +706,14 @@
       <c r="D3" s="2">
         <v>45342</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="1">
         <v>2024</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -733,14 +726,14 @@
       <c r="D4" s="2">
         <v>45342</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="1">
         <v>2024</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -753,14 +746,14 @@
       <c r="D5" s="2">
         <v>45343</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="1">
         <v>2024</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -773,14 +766,14 @@
       <c r="D6" s="2">
         <v>45344</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="1">
         <v>2024</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -793,14 +786,14 @@
       <c r="D7" s="2">
         <v>45344</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="1">
         <v>2024</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -813,14 +806,14 @@
       <c r="D8" s="2">
         <v>45344</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="1">
         <v>2024</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -833,14 +826,14 @@
       <c r="D9" s="2">
         <v>45345</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="1">
         <v>2024</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -853,14 +846,14 @@
       <c r="D10" s="2">
         <v>45345</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="1">
         <v>2024</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
@@ -873,14 +866,14 @@
       <c r="D11" s="2">
         <v>45348</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="1">
         <v>2024</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -893,14 +886,14 @@
       <c r="D12" s="2">
         <v>45348</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="1">
         <v>2024</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
@@ -913,14 +906,14 @@
       <c r="D13" s="2">
         <v>45348</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="1">
         <v>2024</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -933,14 +926,14 @@
       <c r="D14" s="2">
         <v>45349</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="1">
         <v>2024</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -953,14 +946,14 @@
       <c r="D15" s="2">
         <v>45349</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="1">
         <v>2024</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -973,14 +966,14 @@
       <c r="D16" s="2">
         <v>45349</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="1">
         <v>2024</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>36</v>
       </c>
@@ -993,14 +986,14 @@
       <c r="D17" s="2">
         <v>45349</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="1">
         <v>2024</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -1013,14 +1006,14 @@
       <c r="D18" s="2">
         <v>45350</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="1">
         <v>2024</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
@@ -1033,14 +1026,14 @@
       <c r="D19" s="2">
         <v>45350</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="1">
         <v>2024</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -1053,7 +1046,7 @@
       <c r="D20" s="2">
         <v>45350</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="1">
         <v>2024</v>
       </c>
       <c r="F20" s="2" t="s">
@@ -1061,7 +1054,7 @@
       </c>
       <c r="M20" s="4"/>
     </row>
-    <row r="21" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>39</v>
       </c>
@@ -1074,7 +1067,7 @@
       <c r="D21" s="2">
         <v>45353</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="1">
         <v>2024</v>
       </c>
       <c r="F21" s="2" t="s">
@@ -1082,7 +1075,7 @@
       </c>
       <c r="M21" s="4"/>
     </row>
-    <row r="22" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
@@ -1095,7 +1088,7 @@
       <c r="D22" s="2">
         <v>45355</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="1">
         <v>2024</v>
       </c>
       <c r="F22" s="2" t="s">
@@ -1103,7 +1096,7 @@
       </c>
       <c r="M22" s="4"/>
     </row>
-    <row r="23" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>38</v>
       </c>
@@ -1116,14 +1109,14 @@
       <c r="D23" s="2">
         <v>45355</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="1">
         <v>2024</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>40</v>
       </c>
@@ -1136,7 +1129,7 @@
       <c r="D24" s="2">
         <v>45364</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="1">
         <v>2024</v>
       </c>
       <c r="F24" s="2" t="s">
@@ -1144,7 +1137,7 @@
       </c>
       <c r="M24" s="4"/>
     </row>
-    <row r="25" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
@@ -1157,7 +1150,7 @@
       <c r="D25" s="2">
         <v>45426</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="1">
         <v>2024</v>
       </c>
       <c r="F25" s="2" t="s">
@@ -1182,7 +1175,7 @@
       </c>
       <c r="M25" s="4"/>
     </row>
-    <row r="26" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>3</v>
       </c>
@@ -1195,7 +1188,7 @@
       <c r="D26" s="2">
         <v>45426</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="1">
         <v>2024</v>
       </c>
       <c r="F26" s="2" t="s">
@@ -1220,7 +1213,7 @@
       </c>
       <c r="M26" s="4"/>
     </row>
-    <row r="27" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>18</v>
       </c>
@@ -1233,7 +1226,7 @@
       <c r="D27" s="2">
         <v>45426</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E27" s="1">
         <v>2024</v>
       </c>
       <c r="F27" s="2" t="s">
@@ -1258,7 +1251,7 @@
       </c>
       <c r="M27" s="4"/>
     </row>
-    <row r="28" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -1271,7 +1264,7 @@
       <c r="D28" s="2">
         <v>45426</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28" s="1">
         <v>2024</v>
       </c>
       <c r="F28" s="2" t="s">
@@ -1296,7 +1289,7 @@
       </c>
       <c r="M28" s="4"/>
     </row>
-    <row r="29" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
@@ -1309,7 +1302,7 @@
       <c r="D29" s="2">
         <v>45426</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="1">
         <v>2024</v>
       </c>
       <c r="F29" s="2" t="s">
@@ -1334,7 +1327,7 @@
       </c>
       <c r="M29" s="4"/>
     </row>
-    <row r="30" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>34</v>
       </c>
@@ -1347,7 +1340,7 @@
       <c r="D30" s="2">
         <v>45426</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E30" s="1">
         <v>2024</v>
       </c>
       <c r="F30" s="2" t="s">
@@ -1372,7 +1365,7 @@
       </c>
       <c r="M30" s="4"/>
     </row>
-    <row r="31" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>19</v>
       </c>
@@ -1385,7 +1378,7 @@
       <c r="D31" s="2">
         <v>45427</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31" s="1">
         <v>2024</v>
       </c>
       <c r="F31" s="2" t="s">
@@ -1410,7 +1403,7 @@
       </c>
       <c r="M31" s="4"/>
     </row>
-    <row r="32" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>40</v>
       </c>
@@ -1423,7 +1416,7 @@
       <c r="D32" s="2">
         <v>45427</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E32" s="1">
         <v>2024</v>
       </c>
       <c r="F32" s="2" t="s">
@@ -1448,7 +1441,7 @@
       </c>
       <c r="M32" s="4"/>
     </row>
-    <row r="33" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
@@ -1461,7 +1454,7 @@
       <c r="D33" s="2">
         <v>45427</v>
       </c>
-      <c r="E33" s="16">
+      <c r="E33" s="1">
         <v>2024</v>
       </c>
       <c r="F33" s="2" t="s">
@@ -1486,7 +1479,7 @@
       </c>
       <c r="M33" s="4"/>
     </row>
-    <row r="34" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
@@ -1499,7 +1492,7 @@
       <c r="D34" s="2">
         <v>45427</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E34" s="1">
         <v>2024</v>
       </c>
       <c r="F34" s="2" t="s">
@@ -1524,7 +1517,7 @@
       </c>
       <c r="M34" s="4"/>
     </row>
-    <row r="35" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>8</v>
       </c>
@@ -1537,7 +1530,7 @@
       <c r="D35" s="2">
         <v>45427</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="1">
         <v>2024</v>
       </c>
       <c r="F35" s="2" t="s">
@@ -1552,7 +1545,7 @@
       <c r="J35" s="6"/>
       <c r="M35" s="4"/>
     </row>
-    <row r="36" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>29</v>
       </c>
@@ -1563,7 +1556,7 @@
         <v>45</v>
       </c>
       <c r="D36" s="2"/>
-      <c r="E36" s="16">
+      <c r="E36" s="1">
         <v>2024</v>
       </c>
       <c r="F36" s="2" t="s">
@@ -1588,7 +1581,7 @@
       </c>
       <c r="M36" s="4"/>
     </row>
-    <row r="37" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>42</v>
       </c>
@@ -1601,7 +1594,7 @@
       <c r="D37" s="2">
         <v>45428</v>
       </c>
-      <c r="E37" s="16">
+      <c r="E37" s="1">
         <v>2024</v>
       </c>
       <c r="F37" s="2" t="s">
@@ -1627,7 +1620,7 @@
       <c r="M37" s="4"/>
       <c r="P37" s="7"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
@@ -1640,7 +1633,7 @@
       <c r="D38" s="2">
         <v>45432</v>
       </c>
-      <c r="E38" s="16">
+      <c r="E38" s="1">
         <v>2024</v>
       </c>
       <c r="F38" s="2" t="s">
@@ -1665,7 +1658,7 @@
       </c>
       <c r="M38" s="4"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>14</v>
       </c>
@@ -1678,7 +1671,7 @@
       <c r="D39" s="2">
         <v>45432</v>
       </c>
-      <c r="E39" s="16">
+      <c r="E39" s="1">
         <v>2024</v>
       </c>
       <c r="F39" s="2" t="s">
@@ -1703,7 +1696,7 @@
       </c>
       <c r="M39" s="4"/>
     </row>
-    <row r="40" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>30</v>
       </c>
@@ -1716,7 +1709,7 @@
       <c r="D40" s="2">
         <v>45433</v>
       </c>
-      <c r="E40" s="16">
+      <c r="E40" s="1">
         <v>2024</v>
       </c>
       <c r="F40" s="2" t="s">
@@ -1741,7 +1734,7 @@
       </c>
       <c r="M40" s="4"/>
     </row>
-    <row r="41" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>31</v>
       </c>
@@ -1754,7 +1747,7 @@
       <c r="D41" s="2">
         <v>45434</v>
       </c>
-      <c r="E41" s="16">
+      <c r="E41" s="1">
         <v>2024</v>
       </c>
       <c r="F41" s="2" t="s">
@@ -1779,7 +1772,7 @@
       </c>
       <c r="M41" s="4"/>
     </row>
-    <row r="42" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>32</v>
       </c>
@@ -1792,7 +1785,7 @@
       <c r="D42" s="2">
         <v>45441</v>
       </c>
-      <c r="E42" s="16">
+      <c r="E42" s="1">
         <v>2024</v>
       </c>
       <c r="F42" s="2" t="s">
@@ -1817,7 +1810,7 @@
       </c>
       <c r="M42" s="4"/>
     </row>
-    <row r="43" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>39</v>
       </c>
@@ -1830,7 +1823,7 @@
       <c r="D43" s="2">
         <v>45441</v>
       </c>
-      <c r="E43" s="16">
+      <c r="E43" s="1">
         <v>2024</v>
       </c>
       <c r="F43" s="2" t="s">
@@ -1855,7 +1848,7 @@
       </c>
       <c r="M43" s="4"/>
     </row>
-    <row r="44" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1868,7 +1861,7 @@
       <c r="D44" s="2">
         <v>45496</v>
       </c>
-      <c r="E44" s="16">
+      <c r="E44" s="1">
         <v>2024</v>
       </c>
       <c r="F44" s="2" t="s">
@@ -1893,7 +1886,7 @@
       </c>
       <c r="M44" s="4"/>
     </row>
-    <row r="45" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1906,7 +1899,7 @@
       <c r="D45" s="2">
         <v>45496</v>
       </c>
-      <c r="E45" s="16">
+      <c r="E45" s="1">
         <v>2024</v>
       </c>
       <c r="F45" s="2" t="s">
@@ -1926,12 +1919,12 @@
         <v>109.47900000000001</v>
       </c>
       <c r="K45" s="14">
-        <f t="shared" si="1"/>
+        <f>J45/G45*31/14</f>
         <v>1053.9903726708076</v>
       </c>
       <c r="M45" s="4"/>
     </row>
-    <row r="46" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>33</v>
       </c>
@@ -1944,7 +1937,7 @@
       <c r="D46" s="2">
         <v>45509</v>
       </c>
-      <c r="E46" s="16">
+      <c r="E46" s="1">
         <v>2024</v>
       </c>
       <c r="F46" s="2" t="s">
@@ -1969,7 +1962,7 @@
       </c>
       <c r="M46" s="4"/>
     </row>
-    <row r="47" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>41</v>
       </c>
@@ -1982,7 +1975,7 @@
       <c r="D47" s="2">
         <v>45509</v>
       </c>
-      <c r="E47" s="16">
+      <c r="E47" s="1">
         <v>2024</v>
       </c>
       <c r="F47" s="2" t="s">
@@ -2007,7 +2000,7 @@
       </c>
       <c r="M47" s="4"/>
     </row>
-    <row r="48" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>3</v>
       </c>
@@ -2020,7 +2013,7 @@
       <c r="D48" s="2">
         <v>45510</v>
       </c>
-      <c r="E48" s="16">
+      <c r="E48" s="1">
         <v>2024</v>
       </c>
       <c r="F48" s="2" t="s">
@@ -2036,7 +2029,7 @@
         <v>364.33100000000002</v>
       </c>
       <c r="J48" s="6">
-        <f t="shared" si="0"/>
+        <f>H48+I48</f>
         <v>376.10500000000002</v>
       </c>
       <c r="K48" s="14">
@@ -2045,7 +2038,7 @@
       </c>
       <c r="M48" s="4"/>
     </row>
-    <row r="49" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>18</v>
       </c>
@@ -2058,7 +2051,7 @@
       <c r="D49" s="2">
         <v>45511</v>
       </c>
-      <c r="E49" s="16">
+      <c r="E49" s="1">
         <v>2024</v>
       </c>
       <c r="F49" s="2" t="s">
@@ -2083,7 +2076,7 @@
       </c>
       <c r="M49" s="4"/>
     </row>
-    <row r="50" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>40</v>
       </c>
@@ -2096,7 +2089,7 @@
       <c r="D50" s="2">
         <v>45511</v>
       </c>
-      <c r="E50" s="16">
+      <c r="E50" s="1">
         <v>2024</v>
       </c>
       <c r="F50" s="2" t="s">
@@ -2121,7 +2114,7 @@
       </c>
       <c r="M50" s="4"/>
     </row>
-    <row r="51" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>32</v>
       </c>
@@ -2134,7 +2127,7 @@
       <c r="D51" s="2">
         <v>45511</v>
       </c>
-      <c r="E51" s="16">
+      <c r="E51" s="1">
         <v>2024</v>
       </c>
       <c r="F51" s="2" t="s">
@@ -2159,7 +2152,7 @@
       </c>
       <c r="M51" s="4"/>
     </row>
-    <row r="52" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>39</v>
       </c>
@@ -2172,7 +2165,7 @@
       <c r="D52" s="2">
         <v>45511</v>
       </c>
-      <c r="E52" s="16">
+      <c r="E52" s="1">
         <v>2024</v>
       </c>
       <c r="F52" s="2" t="s">
@@ -2197,7 +2190,7 @@
       </c>
       <c r="M52" s="4"/>
     </row>
-    <row r="53" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>30</v>
       </c>
@@ -2210,7 +2203,7 @@
       <c r="D53" s="2">
         <v>45512</v>
       </c>
-      <c r="E53" s="16">
+      <c r="E53" s="1">
         <v>2024</v>
       </c>
       <c r="F53" s="2" t="s">
@@ -2235,7 +2228,7 @@
       </c>
       <c r="M53" s="4"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,7 +2241,7 @@
       <c r="D54" s="2">
         <v>45516</v>
       </c>
-      <c r="E54" s="16">
+      <c r="E54" s="1">
         <v>2024</v>
       </c>
       <c r="F54" s="2" t="s">
@@ -2273,7 +2266,7 @@
       </c>
       <c r="M54" s="4"/>
     </row>
-    <row r="55" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>31</v>
       </c>
@@ -2286,7 +2279,7 @@
       <c r="D55" s="2">
         <v>45516</v>
       </c>
-      <c r="E55" s="16">
+      <c r="E55" s="1">
         <v>2024</v>
       </c>
       <c r="F55" s="2" t="s">
@@ -2311,7 +2304,7 @@
       </c>
       <c r="M55" s="4"/>
     </row>
-    <row r="56" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>42</v>
       </c>
@@ -2324,7 +2317,7 @@
       <c r="D56" s="2">
         <v>45517</v>
       </c>
-      <c r="E56" s="16">
+      <c r="E56" s="1">
         <v>2024</v>
       </c>
       <c r="F56" s="2" t="s">
@@ -2349,7 +2342,7 @@
       </c>
       <c r="M56" s="4"/>
     </row>
-    <row r="57" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>29</v>
       </c>
@@ -2362,7 +2355,7 @@
       <c r="D57" s="2">
         <v>45517</v>
       </c>
-      <c r="E57" s="16">
+      <c r="E57" s="1">
         <v>2024</v>
       </c>
       <c r="F57" s="2" t="s">
@@ -2387,7 +2380,7 @@
       </c>
       <c r="M57" s="4"/>
     </row>
-    <row r="58" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>8</v>
       </c>
@@ -2400,7 +2393,7 @@
       <c r="D58" s="2">
         <v>45517</v>
       </c>
-      <c r="E58" s="16">
+      <c r="E58" s="1">
         <v>2024</v>
       </c>
       <c r="F58" s="2" t="s">
@@ -2425,7 +2418,7 @@
       </c>
       <c r="M58" s="4"/>
     </row>
-    <row r="59" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>34</v>
       </c>
@@ -2438,7 +2431,7 @@
       <c r="D59" s="2">
         <v>45517</v>
       </c>
-      <c r="E59" s="16">
+      <c r="E59" s="1">
         <v>2024</v>
       </c>
       <c r="F59" s="2" t="s">
@@ -2463,7 +2456,7 @@
       </c>
       <c r="M59" s="4"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>44</v>
       </c>
@@ -2476,7 +2469,7 @@
       <c r="D60" s="15">
         <v>45893</v>
       </c>
-      <c r="E60" s="16">
+      <c r="E60" s="1">
         <v>2024</v>
       </c>
       <c r="F60" s="15" t="s">
@@ -2501,7 +2494,7 @@
       </c>
       <c r="M60" s="4"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M61" s="4"/>
     </row>
   </sheetData>
